--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4474.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4474.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4474</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jeffrey Dexter Francis Vandersay</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Leg Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +609,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>31/12/2015</t>
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -592,7 +656,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -600,7 +663,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -640,7 +703,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>21/11/2016</t>
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3962</t>
+          <t>3962</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -688,7 +750,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>27/11/2016</t>
@@ -696,7 +757,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3965</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -904,7 +965,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -956,7 +1017,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1008,7 +1069,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1109,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>01/07/2019</t>
@@ -1056,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1096,7 +1156,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>16/01/2022</t>
@@ -1104,7 +1163,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4521</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1156,7 +1215,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4523</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1267,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4527</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1359,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1418,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1412,7 +1470,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1510,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>15/01/2023</t>
@@ -1460,7 +1517,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1499,7 +1556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1521,7 +1578,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1558,7 +1615,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3866</t>
+          <t>3866</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1595,7 +1652,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3868</t>
+          <t>3868</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1632,7 +1689,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3870</t>
+          <t>3870</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1669,7 +1726,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3965</t>
+          <t>3965</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1706,7 +1763,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3983</t>
+          <t>3983</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1743,7 +1800,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3990</t>
+          <t>3990</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1780,7 +1837,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4079</t>
+          <t>4079</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1817,7 +1874,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4081</t>
+          <t>4081</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1854,7 +1911,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4082</t>
+          <t>4082</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1891,7 +1948,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4087</t>
+          <t>4087</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1928,7 +1985,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4344</t>
+          <t>4344</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1965,7 +2022,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4521</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2002,7 +2059,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4523</t>
+          <t>4523</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2039,7 +2096,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4527</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2076,7 +2133,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4597</t>
+          <t>4597</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2113,7 +2170,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4600</t>
+          <t>4600</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2150,7 +2207,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4601</t>
+          <t>4601</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2187,7 +2244,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4603</t>
+          <t>4603</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2224,7 +2281,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4691</t>
+          <t>4691</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2250,6 +2307,499 @@
       <c r="G20" t="inlineStr">
         <is>
           <t>0/58</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3866</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5.98%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3868</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3870</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3962</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3965</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3983</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.42%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3990</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4079</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4081</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>11.76%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4082</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4087</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.94%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4344</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4521</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>8</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4527</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4597</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>3.18%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4600</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4603</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.50%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4691</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/SRL/PlayerPerformance_4474.xlsx
+++ b/bin/sheets/main_db/teams/SRL/PlayerPerformance_4474.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -609,6 +608,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>31/12/2015</t>
@@ -656,6 +656,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>02/01/2016</t>
@@ -668,7 +669,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -703,6 +704,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>21/11/2016</t>
@@ -715,7 +717,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -750,6 +752,7 @@
           <t>5</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>27/11/2016</t>
@@ -1109,6 +1112,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>01/07/2019</t>
@@ -1156,6 +1160,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>16/01/2022</t>
@@ -1359,6 +1364,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>19/06/2022</t>
@@ -1510,6 +1516,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>15/01/2023</t>
@@ -2313,497 +2320,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3866</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>5.98%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3868</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3870</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3962</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3965</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3983</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.42%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3990</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4079</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4081</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>11.76%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4082</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4087</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.94%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4344</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4521</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4523</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4527</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.18%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4597</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>9</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.18%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4600</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4601</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4603</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2.50%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4691</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>